--- a/Vocabularies/ASCE/asce-et.xlsx
+++ b/Vocabularies/ASCE/asce-et.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\Completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B75A4-9055-433C-9C26-DE1E7722609B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A3C8C6-59A7-42AE-8888-2839BBF9AD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="260">
   <si>
     <t>Term</t>
   </si>
@@ -3952,13 +3952,25 @@
   </si>
   <si>
     <t>Solar time angle at end of hourly or shorter period (radians).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://ascelibrary.org/doi/pdf/10.1061/9780784408056.bm</t>
+  </si>
+  <si>
+    <t>ASCE Evapotranspiration</t>
+  </si>
+  <si>
+    <t>https://www.asce.org/</t>
+  </si>
+  <si>
+    <t>American Society of Civil Engineers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3989,6 +4001,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4007,10 +4027,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4019,8 +4040,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -4363,7 +4386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5344,8 +5367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5386,6 +5409,18 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
@@ -5444,6 +5479,9 @@
   <sortState ref="C1:G9">
     <sortCondition ref="G1:G9"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8DD0BDE4-983D-47C3-85E9-A1A037107AF4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vocabularies/ASCE/asce-et.xlsx
+++ b/Vocabularies/ASCE/asce-et.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\Completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/ASCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A3C8C6-59A7-42AE-8888-2839BBF9AD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297E8E6F-70F6-1844-8F7A-4FAC34B46E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Water use</t>
   </si>
   <si>
-    <t>Legal &amp; Regulatory</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data </t>
   </si>
   <si>
@@ -3964,15 +3961,25 @@
   </si>
   <si>
     <t>American Society of Civil Engineers</t>
+  </si>
+  <si>
+    <t>Legal and Regulatory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4029,18 +4036,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4387,17 +4394,17 @@
   <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4423,927 +4430,927 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="C45" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="C46" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="C52" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="C67" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+      <c r="C69" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+      <c r="C73" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+      <c r="C75" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+      <c r="C81" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
+      <c r="C84" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+      <c r="C85" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+      <c r="C87" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+      <c r="C90" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+      <c r="C91" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+      <c r="C94" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+      <c r="C95" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
+      <c r="C100" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
+      <c r="C101" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
+      <c r="C102" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
+      <c r="C104" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
+      <c r="C105" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
+      <c r="C110" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
+      <c r="C112" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5368,21 +5375,21 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5405,74 +5412,74 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
